--- a/Excel/excel/GMConfig.xlsx
+++ b/Excel/excel/GMConfig.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25905" windowHeight="12975"/>
+    <workbookView windowWidth="16200" windowHeight="25575"/>
   </bookViews>
   <sheets>
     <sheet name="GMConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -74,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -118,6 +131,537 @@
     <t>解说</t>
   </si>
   <si>
+    <t>声效特效</t>
+  </si>
+  <si>
+    <t>播放bgm或music</t>
+  </si>
+  <si>
+    <t>local playSound 1 id</t>
+  </si>
+  <si>
+    <t>1为bgm,2为音效,sound表的id</t>
+  </si>
+  <si>
+    <t>bgm或music声音大小</t>
+  </si>
+  <si>
+    <t>local playVolume 1 50</t>
+  </si>
+  <si>
+    <t>1为bgm,2为音效,值在0--100之间</t>
+  </si>
+  <si>
+    <t>播放特效</t>
+  </si>
+  <si>
+    <t>local playEffect id</t>
+  </si>
+  <si>
+    <t>effect表的id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>技能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>技能升级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HeroGm skillUpgrade 1:2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HeroGm skillUpgrade[英雄id:英雄等级]</t>
+    </r>
+  </si>
+  <si>
+    <t>配料系统</t>
+  </si>
+  <si>
+    <t>获得配料</t>
+  </si>
+  <si>
+    <t>IngredientGm addIngredient 1061001</t>
+  </si>
+  <si>
+    <t>IngredientGm addIngredient [配料的物品配置id]</t>
+  </si>
+  <si>
+    <t>升级配料</t>
+  </si>
+  <si>
+    <t>IngredientGm upGradeIngredient 3237245537453736010</t>
+  </si>
+  <si>
+    <t>IngredientGm upGradeIngredient [配料唯一id]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>宝物系统</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获得宝物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TreasureGm getTreasure 1,2,3,4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TreasureGm getTreasure [宝物id,宝物id]（逗号隔开）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>宝物升级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TreasureGm treasureUpgrade 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TreasureGm treasureUpgrade [宝物id]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任务系统</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成指定任务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TaskGm finishTask 401002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TaskGm finishTask [任务id]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>领取指定任务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TaskGm receiveTask 401002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TaskGm receiveTask [任务id]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成当前等级全部城堡任务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TaskGm finishCastleTask</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CastleGm finishCastleTask</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>公会</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重置每日挑战次数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GuildGm resetCrusadeTime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置讨伐阶段</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GuildGm setCrusadeStage 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GuildGm setCrusadeStage [阶段id]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重置每日捐赠次数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GuildGm resetDonationNum</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>公会升级</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GuildGm guildUpGrade</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>增加公会道具</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GuildGm addGuildItem 1014001:100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GuildGm addGuildItem [道具id:数量]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>增加公会活跃度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GuildGm addActivity 100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GuildGm addActivity [活跃度]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成就</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成所有成就（需要重登，使用后会卡2、3分钟）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AchievementGm finishAll</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -236,549 +780,12 @@
       </rPr>
       <t>HeroGm upStair [英雄id]</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>技能</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>技能升级</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HeroGm skillUpgrade 1:2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HeroGm skillUpgrade[英雄id:英雄等级]</t>
-    </r>
-  </si>
-  <si>
-    <t>配料系统</t>
-  </si>
-  <si>
-    <t>获得配料</t>
-  </si>
-  <si>
-    <t>IngredientGm addIngredient 1061001</t>
-  </si>
-  <si>
-    <t>IngredientGm addIngredient [配料的物品配置id]</t>
-  </si>
-  <si>
-    <t>升级配料</t>
-  </si>
-  <si>
-    <t>IngredientGm upGradeIngredient 3237245537453736010</t>
-  </si>
-  <si>
-    <t>IngredientGm upGradeIngredient [配料唯一id]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>宝物系统</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>获得宝物</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TreasureGm getTreasure 1,2,3,4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TreasureGm getTreasure [宝物id,宝物id]（逗号隔开）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>宝物升级</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TreasureGm treasureUpgrade 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TreasureGm treasureUpgrade [宝物id]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>任务系统</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成指定任务</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TaskGm finishTask 401002</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TaskGm finishTask [任务id]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>领取指定任务</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TaskGm receiveTask 401002</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TaskGm receiveTask [任务id]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成当前等级全部城堡任务</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TaskGm finishCastleTask</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CastleGm finishCastleTask</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>公会</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>重置每日挑战次数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GuildGm resetCrusadeTime</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设置讨伐阶段</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GuildGm setCrusadeStage 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GuildGm setCrusadeStage [阶段id]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>重置每日捐赠次数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GuildGm resetDonationNum</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>公会升级</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GuildGm guildUpGrade</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>增加公会道具</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GuildGm addGuildItem 1014001:100</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GuildGm addGuildItem [道具id:数量]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>增加公会活跃度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GuildGm addActivity 100</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GuildGm addActivity [活跃度]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>成就</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成所有成就（需要重登，使用后会卡2、3分钟）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AchievementGm finishAll</t>
-    </r>
-  </si>
-  <si>
-    <t>声效</t>
-  </si>
-  <si>
-    <t>播放bgm或music</t>
-  </si>
-  <si>
-    <t>local playSound 1 id</t>
-  </si>
-  <si>
-    <t>1为bgm,2为音效,sound表的id</t>
-  </si>
-  <si>
-    <t>bgm或music声音大小</t>
-  </si>
-  <si>
-    <t>local playSound 1 50</t>
-  </si>
-  <si>
-    <t>1为bgm,2为音效,值在0--100之间</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>加速建筑生产</t>
-    </r>
-  </si>
-  <si>
-    <t>abc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1202,10 +1209,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1215,10 +1222,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1494,20 +1501,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1837,7 +1844,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" outlineLevelCol="5"/>
@@ -1927,7 +1934,7 @@
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1947,7 +1954,7 @@
       <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1967,7 +1974,7 @@
       <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1978,16 +1985,16 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1998,16 +2005,16 @@
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2018,16 +2025,16 @@
       <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2038,16 +2045,16 @@
       <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2058,16 +2065,16 @@
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2078,7 +2085,7 @@
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -2087,7 +2094,7 @@
       <c r="E12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2098,7 +2105,7 @@
       <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2107,7 +2114,7 @@
       <c r="E13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2118,7 +2125,7 @@
       <c r="B14" s="3">
         <v>5</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -2127,7 +2134,7 @@
       <c r="E14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2138,7 +2145,7 @@
       <c r="B15" s="3">
         <v>6</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2147,7 +2154,7 @@
       <c r="E15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2158,7 +2165,7 @@
       <c r="B16" s="3">
         <v>6</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2167,7 +2174,7 @@
       <c r="E16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="11" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2178,7 +2185,7 @@
       <c r="B17" s="3">
         <v>6</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -2187,7 +2194,7 @@
       <c r="E17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2198,7 +2205,7 @@
       <c r="B18" s="3">
         <v>6</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -2207,7 +2214,7 @@
       <c r="E18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2218,7 +2225,7 @@
       <c r="B19" s="3">
         <v>6</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -2238,7 +2245,7 @@
       <c r="B20" s="3">
         <v>6</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -2287,7 +2294,7 @@
       <c r="E22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2307,7 +2314,7 @@
       <c r="E23" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2327,8 +2334,8 @@
       <c r="E24" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>79</v>
+      <c r="F24" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/GMConfig.xlsx
+++ b/Excel/excel/GMConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25575"/>
+    <workbookView windowWidth="27705" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="GMConfig" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -161,625 +161,31 @@
     <t>effect表的id</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>技能</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>技能升级</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HeroGm skillUpgrade 1:2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HeroGm skillUpgrade[英雄id:英雄等级]</t>
-    </r>
-  </si>
-  <si>
-    <t>配料系统</t>
-  </si>
-  <si>
-    <t>获得配料</t>
-  </si>
-  <si>
-    <t>IngredientGm addIngredient 1061001</t>
-  </si>
-  <si>
-    <t>IngredientGm addIngredient [配料的物品配置id]</t>
-  </si>
-  <si>
-    <t>升级配料</t>
-  </si>
-  <si>
-    <t>IngredientGm upGradeIngredient 3237245537453736010</t>
-  </si>
-  <si>
-    <t>IngredientGm upGradeIngredient [配料唯一id]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>宝物系统</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>获得宝物</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TreasureGm getTreasure 1,2,3,4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TreasureGm getTreasure [宝物id,宝物id]（逗号隔开）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>宝物升级</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TreasureGm treasureUpgrade 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TreasureGm treasureUpgrade [宝物id]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>任务系统</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成指定任务</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TaskGm finishTask 401002</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TaskGm finishTask [任务id]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>领取指定任务</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TaskGm receiveTask 401002</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TaskGm receiveTask [任务id]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成当前等级全部城堡任务</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TaskGm finishCastleTask</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CastleGm finishCastleTask</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>公会</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>重置每日挑战次数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GuildGm resetCrusadeTime</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设置讨伐阶段</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GuildGm setCrusadeStage 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GuildGm setCrusadeStage [阶段id]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>重置每日捐赠次数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GuildGm resetDonationNum</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>公会升级</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GuildGm guildUpGrade</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>增加公会道具</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GuildGm addGuildItem 1014001:100</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GuildGm addGuildItem [道具id:数量]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>增加公会活跃度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GuildGm addActivity 100</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GuildGm addActivity [活跃度]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>成就</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成所有成就（需要重登，使用后会卡2、3分钟）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AchievementGm finishAll</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>角色（英雄）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>获取英雄（只能已配置的）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HeroGm addHero 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HeroGm addHero [英雄id]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>增加英雄经验</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HeroGm addHeroExp 1:800</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HeroGm addHeroExp [英雄id:增加的经验]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>英雄升阶</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HeroGm upStair 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HeroGm upStair [英雄id]</t>
-    </r>
+    <t>引导</t>
+  </si>
+  <si>
+    <t>播放引导</t>
+  </si>
+  <si>
+    <t>local guideType id</t>
+  </si>
+  <si>
+    <t>guideTypeConfig表的id</t>
+  </si>
+  <si>
+    <t>点击时copy_fgui路径</t>
+  </si>
+  <si>
+    <t>local copyFGUIPath 1</t>
+  </si>
+  <si>
+    <t>1为开,0为关,,默认关</t>
+  </si>
+  <si>
+    <t>播放引导_占用</t>
+  </si>
+  <si>
+    <t>其他</t>
   </si>
 </sst>
 </file>
@@ -974,16 +380,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1185,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1200,32 +606,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1358,7 +738,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1370,34 +750,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1482,14 +862,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1507,19 +890,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1841,501 +1215,227 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="11.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="39.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="46" style="3" customWidth="1"/>
-    <col min="6" max="6" width="46.875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="11.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="39.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="46" style="4" customWidth="1"/>
+    <col min="6" max="6" width="46.875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>1001</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>1002</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>1003</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>1004</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>1005</v>
       </c>
       <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A9" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A10" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="4">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A9" s="3">
-        <v>1006</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A10" s="3">
-        <v>1007</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A11" s="3">
-        <v>1008</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="3">
-        <v>1009</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="3">
-        <v>1010</v>
-      </c>
-      <c r="B13" s="3">
-        <v>5</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="3">
-        <v>1011</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="3">
-        <v>1012</v>
-      </c>
-      <c r="B15" s="3">
-        <v>6</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="3">
-        <v>1013</v>
-      </c>
-      <c r="B16" s="3">
-        <v>6</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="3">
-        <v>1014</v>
-      </c>
-      <c r="B17" s="3">
-        <v>6</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="3">
-        <v>1015</v>
-      </c>
-      <c r="B18" s="3">
-        <v>6</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="3">
-        <v>1016</v>
-      </c>
-      <c r="B19" s="3">
-        <v>6</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="3">
-        <v>1017</v>
-      </c>
-      <c r="B20" s="3">
-        <v>6</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="3">
-        <v>1018</v>
-      </c>
-      <c r="B21" s="3">
-        <v>7</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="3">
-        <v>1019</v>
-      </c>
-      <c r="B22" s="3">
-        <v>8</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="3">
-        <v>1020</v>
-      </c>
-      <c r="B23" s="3">
-        <v>8</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:6">
-      <c r="A24" s="3">
-        <v>1021</v>
-      </c>
-      <c r="B24" s="3">
-        <v>8</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>80</v>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/excel/GMConfig.xlsx
+++ b/Excel/excel/GMConfig.xlsx
@@ -128,7 +128,7 @@
     <t>文本框</t>
   </si>
   <si>
-    <t>解说</t>
+    <t>注解</t>
   </si>
   <si>
     <t>声效特效</t>
@@ -155,7 +155,7 @@
     <t>播放特效</t>
   </si>
   <si>
-    <t>local playEffect id</t>
+    <t>local playEffect 1001</t>
   </si>
   <si>
     <t>effect表的id</t>
@@ -167,10 +167,10 @@
     <t>播放引导</t>
   </si>
   <si>
-    <t>local guideType id</t>
-  </si>
-  <si>
-    <t>guideTypeConfig表的id</t>
+    <t>local guideType 1001</t>
+  </si>
+  <si>
+    <t>guideType表的id</t>
   </si>
   <si>
     <t>点击时copy_fgui路径</t>
@@ -380,12 +380,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" outlineLevelCol="5"/>

--- a/Excel/excel/GMConfig.xlsx
+++ b/Excel/excel/GMConfig.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27705" windowHeight="12975"/>
+    <workbookView windowWidth="25905" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="GMConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -87,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -131,7 +118,7 @@
     <t>注解</t>
   </si>
   <si>
-    <t>声效特效</t>
+    <t>功能展示</t>
   </si>
   <si>
     <t>播放bgm或music</t>
@@ -161,6 +148,30 @@
     <t>effect表的id</t>
   </si>
   <si>
+    <t>飘字内容</t>
+  </si>
+  <si>
+    <t>local AddToastStr 我是飘字啦</t>
+  </si>
+  <si>
+    <t>飘字Id</t>
+  </si>
+  <si>
+    <t>local AddToastId 1001</t>
+  </si>
+  <si>
+    <t>飘字id,tipTextConfig的id</t>
+  </si>
+  <si>
+    <t>跑马灯</t>
+  </si>
+  <si>
+    <t>local AddHorseLampId 2002</t>
+  </si>
+  <si>
+    <t>跑马灯id,tipTextConfig的id</t>
+  </si>
+  <si>
     <t>引导</t>
   </si>
   <si>
@@ -183,15 +194,12 @@
   </si>
   <si>
     <t>播放引导_占用</t>
-  </si>
-  <si>
-    <t>其他</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1215,10 +1223,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" outlineLevelCol="5"/>
@@ -1299,7 +1307,7 @@
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1308,7 +1316,7 @@
       <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1319,7 +1327,7 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1328,7 +1336,7 @@
       <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1339,7 +1347,7 @@
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1348,95 +1356,125 @@
       <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A7" s="2">
+    <row r="7" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A7" s="4">
         <v>1004</v>
       </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A8" s="4">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A8" s="2">
-        <v>1005</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="8" t="s">
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A9" s="4">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="F9" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A9" s="2">
-        <v>1006</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" s="3" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A10" s="2">
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A10" s="4">
         <v>1007</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A11" s="4">
         <v>1008</v>
       </c>
-      <c r="B11" s="4">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A12" s="4">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="D12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/excel/GMConfig.xlsx
+++ b/Excel/excel/GMConfig.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t>跑马灯id,tipTextConfig的id</t>
+  </si>
+  <si>
+    <t>spine显示</t>
+  </si>
+  <si>
+    <t>local SpineId 1001</t>
+  </si>
+  <si>
+    <t>显示Spine</t>
   </si>
   <si>
     <t>引导</t>
@@ -1223,10 +1232,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" outlineLevelCol="5"/>
@@ -1424,23 +1433,23 @@
       <c r="A10" s="4">
         <v>1007</v>
       </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:6">
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A11" s="4">
         <v>1008</v>
       </c>
@@ -1448,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>36</v>
@@ -1456,11 +1465,11 @@
       <c r="E11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" customHeight="1" spans="1:6">
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A12" s="4">
         <v>1009</v>
       </c>
@@ -1468,13 +1477,33 @@
         <v>2</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A13" s="4">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
